--- a/doc/家集客预算表.xlsx
+++ b/doc/家集客预算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16640"/>
+    <workbookView windowHeight="14840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1736,8 +1736,8 @@
   <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1772,9 +1772,7 @@
       <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16">
-        <v>18.9</v>
-      </c>
+      <c r="D2" s="16"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13">
         <f t="shared" ref="F2:F58" si="0">D2*E2</f>
@@ -1789,9 +1787,7 @@
       <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16">
-        <v>25.3</v>
-      </c>
+      <c r="D3" s="16"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13">
         <f t="shared" si="0"/>
@@ -1808,9 +1804,7 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19">
-        <v>5903.18</v>
-      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
@@ -1825,9 +1819,7 @@
       <c r="C5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19">
-        <v>8239.75</v>
-      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
@@ -1844,9 +1836,7 @@
       <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19">
-        <v>4812.75</v>
-      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
@@ -1863,9 +1853,7 @@
       <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19">
-        <v>4333.2</v>
-      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13">
         <f t="shared" si="0"/>
@@ -1882,9 +1870,7 @@
       <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19">
-        <v>2991.15</v>
-      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
@@ -1901,9 +1887,7 @@
       <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19">
-        <v>12483.25</v>
-      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
@@ -1920,9 +1904,7 @@
       <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19">
-        <v>8817.05</v>
-      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13">
         <f t="shared" si="0"/>
@@ -1937,9 +1919,7 @@
       <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19">
-        <v>7040.3</v>
-      </c>
+      <c r="D11" s="19"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
@@ -1954,9 +1934,7 @@
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="19">
-        <v>5070.35</v>
-      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
@@ -1973,9 +1951,7 @@
       <c r="C13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="19">
-        <v>3249.9</v>
-      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
@@ -1992,9 +1968,7 @@
       <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="19">
-        <v>5070.35</v>
-      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13">
         <f t="shared" si="0"/>
@@ -2011,9 +1985,7 @@
       <c r="C15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="19">
-        <v>2916.4</v>
-      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
@@ -2030,9 +2002,7 @@
       <c r="C16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19">
-        <v>165.26</v>
-      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
@@ -2049,9 +2019,7 @@
       <c r="C17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="19">
-        <v>209.139</v>
-      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
@@ -2068,9 +2036,7 @@
       <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="19">
-        <v>146.68</v>
-      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
@@ -2087,9 +2053,7 @@
       <c r="C19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="19">
-        <v>194.17</v>
-      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
@@ -2106,9 +2070,7 @@
       <c r="C20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="19">
-        <v>169.65</v>
-      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
@@ -2125,9 +2087,7 @@
       <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="19">
-        <v>105.8</v>
-      </c>
+      <c r="D21" s="19"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
@@ -2142,9 +2102,7 @@
       <c r="C22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="19">
-        <v>167.9</v>
-      </c>
+      <c r="D22" s="19"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13">
         <f t="shared" si="0"/>
@@ -2159,9 +2117,7 @@
       <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="19">
-        <v>185.15</v>
-      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13">
         <f t="shared" si="0"/>
@@ -2178,9 +2134,7 @@
       <c r="C24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="19">
-        <v>386.4</v>
-      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13">
         <f t="shared" si="0"/>
@@ -2195,9 +2149,7 @@
       <c r="C25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="19">
-        <v>483</v>
-      </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
         <f t="shared" si="0"/>
@@ -2212,9 +2164,7 @@
       <c r="C26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="19">
-        <v>1242</v>
-      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
         <f t="shared" si="0"/>
@@ -2231,9 +2181,7 @@
       <c r="C27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="19">
-        <v>458.85</v>
-      </c>
+      <c r="D27" s="19"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13">
         <f t="shared" si="0"/>
@@ -2248,9 +2196,7 @@
       <c r="C28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="19">
-        <v>31.05</v>
-      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13">
         <f t="shared" si="0"/>
@@ -2267,9 +2213,7 @@
       <c r="C29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="19">
-        <v>113.85</v>
-      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13">
         <f t="shared" si="0"/>
@@ -2286,9 +2230,7 @@
       <c r="C30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="19">
-        <v>43.7</v>
-      </c>
+      <c r="D30" s="19"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13">
         <f t="shared" si="0"/>
@@ -2303,9 +2245,7 @@
       <c r="C31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="19">
-        <v>21.85</v>
-      </c>
+      <c r="D31" s="19"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13">
         <f t="shared" si="0"/>
@@ -2322,9 +2262,7 @@
       <c r="C32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="19">
-        <v>17.25</v>
-      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13">
         <f t="shared" si="0"/>
@@ -2341,9 +2279,7 @@
       <c r="C33" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="19">
-        <v>1322.5</v>
-      </c>
+      <c r="D33" s="19"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13">
         <f t="shared" si="0"/>
@@ -2360,9 +2296,7 @@
       <c r="C34" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="19">
-        <v>190.9</v>
-      </c>
+      <c r="D34" s="19"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13">
         <f t="shared" si="0"/>
@@ -2379,9 +2313,7 @@
       <c r="C35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="19">
-        <v>378.35</v>
-      </c>
+      <c r="D35" s="19"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13">
         <f t="shared" si="0"/>
@@ -2398,9 +2330,7 @@
       <c r="C36" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="19">
-        <v>200.45</v>
-      </c>
+      <c r="D36" s="19"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13">
         <f t="shared" si="0"/>
@@ -2417,9 +2347,7 @@
       <c r="C37" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="19">
-        <v>29.9</v>
-      </c>
+      <c r="D37" s="19"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13">
         <f t="shared" si="0"/>
@@ -2436,9 +2364,7 @@
       <c r="C38" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="19">
-        <v>17.25</v>
-      </c>
+      <c r="D38" s="19"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13">
         <f t="shared" si="0"/>
@@ -2453,9 +2379,7 @@
       <c r="C39" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="19">
-        <v>5.75</v>
-      </c>
+      <c r="D39" s="19"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13">
         <f t="shared" si="0"/>
@@ -2472,9 +2396,7 @@
       <c r="C40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="19">
-        <v>186.3</v>
-      </c>
+      <c r="D40" s="19"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13">
         <f t="shared" si="0"/>
@@ -2489,9 +2411,7 @@
       <c r="C41" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="19">
-        <v>405.95</v>
-      </c>
+      <c r="D41" s="19"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13">
         <f t="shared" si="0"/>
@@ -2508,9 +2428,7 @@
       <c r="C42" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="19">
-        <v>87.4</v>
-      </c>
+      <c r="D42" s="19"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13">
         <f t="shared" si="0"/>
@@ -2525,9 +2443,7 @@
       <c r="C43" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="19">
-        <v>201.25</v>
-      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13">
         <f t="shared" si="0"/>
@@ -2542,9 +2458,7 @@
       <c r="C44" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="19">
-        <v>200.1</v>
-      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13">
         <f t="shared" si="0"/>
@@ -2559,9 +2473,7 @@
       <c r="C45" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="19">
-        <v>644</v>
-      </c>
+      <c r="D45" s="19"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13">
         <f t="shared" si="0"/>
@@ -2578,9 +2490,7 @@
       <c r="C46" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="19">
-        <v>92</v>
-      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13">
         <f t="shared" si="0"/>
@@ -2597,9 +2507,7 @@
       <c r="C47" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="19">
-        <v>18.4</v>
-      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13">
         <f t="shared" si="0"/>
@@ -2614,9 +2522,7 @@
       <c r="C48" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="19">
-        <v>17.25</v>
-      </c>
+      <c r="D48" s="19"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13">
         <f t="shared" si="0"/>
@@ -2633,9 +2539,7 @@
       <c r="C49" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="19">
-        <v>420.9</v>
-      </c>
+      <c r="D49" s="19"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13">
         <f t="shared" si="0"/>
@@ -2650,9 +2554,7 @@
       <c r="C50" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="19">
-        <v>474.95</v>
-      </c>
+      <c r="D50" s="19"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13">
         <f t="shared" si="0"/>
@@ -2669,9 +2571,7 @@
       <c r="C51" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="23">
-        <v>350</v>
-      </c>
+      <c r="D51" s="23"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21">
         <f t="shared" si="0"/>
@@ -2688,9 +2588,7 @@
       <c r="C52" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="23">
-        <v>2057</v>
-      </c>
+      <c r="D52" s="23"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21">
         <f t="shared" si="0"/>
@@ -2707,9 +2605,7 @@
       <c r="C53" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="23">
-        <v>3198</v>
-      </c>
+      <c r="D53" s="23"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21">
         <f t="shared" si="0"/>
@@ -2726,9 +2622,7 @@
       <c r="C54" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="19">
-        <v>984.4</v>
-      </c>
+      <c r="D54" s="19"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13">
         <f t="shared" si="0"/>
@@ -2743,9 +2637,7 @@
       <c r="C55" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="19">
-        <v>2309.43</v>
-      </c>
+      <c r="D55" s="19"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13">
         <f t="shared" si="0"/>
@@ -2758,9 +2650,7 @@
       <c r="C56" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="19">
-        <v>3154.31</v>
-      </c>
+      <c r="D56" s="19"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13">
         <f t="shared" si="0"/>
@@ -2775,9 +2665,7 @@
       <c r="C57" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="19">
-        <v>1480.05</v>
-      </c>
+      <c r="D57" s="19"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13">
         <f t="shared" si="0"/>
@@ -2792,9 +2680,7 @@
       <c r="C58" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="19">
-        <v>1016.6</v>
-      </c>
+      <c r="D58" s="19"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13">
         <f t="shared" si="0"/>
@@ -2840,8 +2726,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2866,9 +2752,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3">
-        <v>4357.7433</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
         <f t="shared" ref="E2:E23" si="0">C2*D2</f>
@@ -2880,9 +2764,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3">
-        <v>4230.8217</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
@@ -2894,9 +2776,7 @@
         <v>105</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3">
-        <v>597</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
@@ -2908,9 +2788,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3">
-        <v>1300</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
@@ -2922,9 +2800,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="3">
-        <v>333.69</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
@@ -2936,9 +2812,7 @@
         <v>108</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3">
-        <v>505.24</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
@@ -2950,9 +2824,7 @@
         <v>109</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="3">
-        <v>904</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
@@ -2964,9 +2836,7 @@
         <v>110</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3">
-        <v>1515</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
@@ -2978,9 +2848,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="7">
-        <v>1403.99</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
@@ -2992,9 +2860,7 @@
         <v>112</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="7">
-        <v>32.9</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
@@ -3006,9 +2872,7 @@
         <v>113</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="7">
-        <v>910.27</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
@@ -3020,9 +2884,7 @@
         <v>114</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="7">
-        <v>72.89</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
@@ -3034,9 +2896,7 @@
         <v>115</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="7">
-        <v>664</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
@@ -3048,9 +2908,7 @@
         <v>116</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="3">
-        <v>93.34</v>
-      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
@@ -3062,9 +2920,7 @@
         <v>117</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <v>180.88</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
@@ -3076,9 +2932,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3">
-        <v>252.31</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
@@ -3090,9 +2944,7 @@
         <v>119</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="3">
-        <v>78.5</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
@@ -3104,9 +2956,7 @@
         <v>120</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="3">
-        <v>17.87</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
@@ -3118,9 +2968,7 @@
         <v>121</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="3">
-        <v>13.72</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
@@ -3132,9 +2980,7 @@
         <v>122</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="3">
-        <v>343.76</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
@@ -3146,9 +2992,7 @@
         <v>123</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="9">
-        <v>11.55425</v>
-      </c>
+      <c r="C22" s="9"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -3160,9 +3004,7 @@
         <v>124</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="9">
-        <v>11.09773</v>
-      </c>
+      <c r="C23" s="9"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
